--- a/tests_results.xlsx
+++ b/tests_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/history_nist_sig_table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA47C06C-9EB1-E842-B610-EBD5349278BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B41725-0109-2A45-BC57-1A8754BD54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
   <si>
     <t>v0.7.1</t>
   </si>
@@ -8895,154 +8895,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> NVIN: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Probably not constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">meas:    0.02 M (M=1e4), max t:  +38.45, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 2.72e-01, (5/tau)^2: 3.38e+02. . </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">    NVI: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Probably not constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.01 M(M=13), max t: +316.36,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 3.03e+00, (5/tau)^2: 2.72e+00.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">                           NV:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> Definitely </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">not constant time.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.02 M (M=1e4), max t: +1289.36</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
-    </r>
-  </si>
-  <si>
     <t>LATTICE</t>
   </si>
   <si>
@@ -9806,6 +9658,207 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
+    </r>
+  </si>
+  <si>
+    <t>Meds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  L_SCENARIO: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">For the moment, maybe constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    0.72 M (M1e4), max t:   +1.34, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 1.58e-03, (5/tau)^2: 1.01e+07. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">   NVIN: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Probably not constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    0.02 M (M=1e4), max t:  +38.45, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.72e-01, (5/tau)^2: 3.38e+02. . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">    NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Probably not constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.01 M(M=13), max t: +316.36,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.03e+00, (5/tau)^2: 2.72e+00.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                           NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Definitely </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">not constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.02 M (M=1e4), max t: +1289.36</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
     </r>
   </si>
 </sst>
@@ -10209,12 +10262,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10243,23 +10371,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10267,19 +10383,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10288,140 +10398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10453,41 +10431,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10507,50 +10452,161 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10570,9 +10626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10610,7 +10666,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10716,7 +10772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10858,7 +10914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10866,10 +10922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36623FBA-CEA1-594C-B41A-AB27154FBA5D}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G66"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10887,63 +10943,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="95" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="97"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10959,10 +11015,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10978,82 +11034,82 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="41"/>
+      <c r="P5" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -11062,17 +11118,17 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -11081,819 +11137,819 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="34"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="82"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="35"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="83"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="35"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="35"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="36"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="84"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="51" t="s">
+      <c r="H14" s="99"/>
+      <c r="I14" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="28" t="s">
+      <c r="O14" s="35"/>
+      <c r="P14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="29"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="51" t="s">
+      <c r="H19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="94" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="79"/>
-      <c r="P19" s="28" t="s">
+      <c r="O19" s="54"/>
+      <c r="P19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="29"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="33"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="47" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="27"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="4" t="s">
+      <c r="M32" s="30"/>
+      <c r="N32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="28" t="s">
+      <c r="O32" s="35"/>
+      <c r="P32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="31"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="33"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J37" s="58" t="s">
+      <c r="J37" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="4" t="s">
+      <c r="M37" s="30"/>
+      <c r="N37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="28" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q37" s="29"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="33"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="16"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -11902,17 +11958,17 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="18"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="66"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -11921,2172 +11977,2178 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="A45" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="25" t="s">
+      <c r="G45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="10"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="11"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="11"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="11"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="12"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="25" t="s">
+      <c r="D50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="19"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
+      <c r="G50" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="30"/>
+      <c r="N50" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="35"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="72"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="36"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="45"/>
       <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="72"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="36"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="72"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="36"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="21"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="37"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="40"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B60" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C60" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D60" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E60" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F60" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="69" t="s">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="69" t="s">
+      <c r="K60" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="73" t="s">
+      <c r="L60" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="74"/>
-      <c r="N55" s="73" t="s">
+      <c r="M60" s="49"/>
+      <c r="N60" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="O55" s="79"/>
-      <c r="P55" s="28" t="s">
+      <c r="O60" s="54"/>
+      <c r="P60" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q55" s="29"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="31"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="33"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="46"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="60" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B67" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C67" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D67" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F67" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G67" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="51" t="s">
+      <c r="H67" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I62" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="J62" s="25" t="s">
+      <c r="I67" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="25" t="s">
+      <c r="K67" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="73" t="s">
+      <c r="L67" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="M62" s="74"/>
-      <c r="N62" s="73" t="s">
+      <c r="M67" s="49"/>
+      <c r="N67" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="O62" s="79"/>
-      <c r="P62" s="28" t="s">
+      <c r="O67" s="54"/>
+      <c r="P67" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q62" s="29"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="80"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="31"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="80"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="31"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="33"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="45"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="45"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="45"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B72" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C72" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D72" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="82" t="s">
+      <c r="E72" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F67" s="51" t="s">
+      <c r="F72" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G72" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="25" t="s">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="25" t="s">
+      <c r="K72" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="73" t="s">
+      <c r="L72" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="74"/>
-      <c r="N67" s="73" t="s">
+      <c r="M72" s="49"/>
+      <c r="N72" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="79"/>
-      <c r="P67" s="28" t="s">
+      <c r="O72" s="54"/>
+      <c r="P72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="Q67" s="29"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="80"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="31"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="31"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="80"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="31"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="81"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="33"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="M72" s="74"/>
-      <c r="N72" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O72" s="79"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="45"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="45"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="45"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="46"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="81"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="9"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="60" t="s">
+      <c r="A77" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="49"/>
+      <c r="N77" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O77" s="54"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="45"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="45"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="45"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="46"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B82" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C82" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D82" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E82" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F82" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G77" s="83" t="s">
+      <c r="G82" s="88" t="s">
         <v>89</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L77" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M77" s="74"/>
-      <c r="N77" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="O77" s="79"/>
-      <c r="P77" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q77" s="105"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="80"/>
-      <c r="P78" s="106"/>
-      <c r="Q78" s="107"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="80"/>
-      <c r="P79" s="106"/>
-      <c r="Q79" s="107"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="80"/>
-      <c r="P80" s="106"/>
-      <c r="Q80" s="107"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="78"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="81"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="109"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>16</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="25" t="s">
+      <c r="J82" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="25" t="s">
+      <c r="K82" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L82" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="M82" s="74"/>
-      <c r="N82" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="O82" s="79"/>
-      <c r="P82" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q82" s="29"/>
+      <c r="L82" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="49"/>
+      <c r="N82" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O82" s="54"/>
+      <c r="P82" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q82" s="23"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="26"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="31"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="26"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="11"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="31"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="25"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="26"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="80"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="31"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="27"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="78"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="81"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="33"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="27"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" s="84" t="s">
-        <v>91</v>
+      <c r="A87" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="25" t="s">
+      <c r="J87" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="25" t="s">
+      <c r="K87" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L87" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="M87" s="74"/>
-      <c r="N87" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="O87" s="79"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="L87" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="49"/>
+      <c r="N87" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="O87" s="54"/>
+      <c r="P87" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="45"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="76"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="45"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="7"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="20"/>
       <c r="G90" s="45"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="80"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="7"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="21"/>
       <c r="G91" s="46"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="78"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="81"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="9"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M92" s="49"/>
+      <c r="N92" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O92" s="54"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="45"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="55"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="45"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="45"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="46"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B97" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C97" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D97" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E97" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F97" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G97" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H92" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="I92" s="102" t="s">
+      <c r="H97" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I97" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J97" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="L97" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M97" s="49"/>
+      <c r="N97" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="O97" s="54"/>
+      <c r="P97" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="45"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="7"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="45"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="7"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="45"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="7"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="46"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="9"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H104" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J104" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="L104" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" s="49"/>
+      <c r="N104" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O104" s="54"/>
+      <c r="P104" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q104" s="5"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" s="45"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="7"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" s="45"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="7"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" s="45"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="7"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" s="46"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="9"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J109" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="L109" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="M109" s="49"/>
+      <c r="N109" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="O109" s="54"/>
+      <c r="P109" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q109" s="5"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="45"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="55"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="7"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="45"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="55"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="7"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="45"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="55"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="7"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="46"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="52"/>
+      <c r="O113" s="56"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="9"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J114" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="K114" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="L114" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M114" s="49"/>
+      <c r="N114" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O114" s="54"/>
+      <c r="P114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="45"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="50"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="45"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="50"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="7"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="45"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="50"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="46"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="53"/>
+      <c r="N118" s="52"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="9"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F119" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J119" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L119" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="M119" s="5"/>
+      <c r="N119" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="O119" s="82"/>
+      <c r="P119" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="45"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="45"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="83"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="7"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="45"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="83"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="7"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="45"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="83"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="7"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="46"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="75"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="84"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="9"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+      <c r="N124" s="70"/>
+      <c r="O124" s="70"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="71"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="72"/>
+      <c r="N125" s="72"/>
+      <c r="O125" s="72"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H126" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K126" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L126" s="40"/>
+      <c r="M126" s="65"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="41"/>
+      <c r="P126" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="79"/>
+      <c r="N127" s="78"/>
+      <c r="O127" s="80"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="7"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="74"/>
+      <c r="K128" s="74"/>
+      <c r="L128" s="78"/>
+      <c r="M128" s="79"/>
+      <c r="N128" s="78"/>
+      <c r="O128" s="80"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="7"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="78"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="7"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="46"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="75"/>
+      <c r="K130" s="75"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="42"/>
+      <c r="O130" s="43"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="9"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J92" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="L92" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="M92" s="74"/>
-      <c r="N92" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="O92" s="79"/>
-      <c r="P92" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q92" s="29"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="80"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="31"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="76"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="80"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="31"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="76"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="31"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="77"/>
-      <c r="M96" s="78"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="81"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="33"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H99" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="I99" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="J99" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="K99" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="L99" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="M99" s="74"/>
-      <c r="N99" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="O99" s="79"/>
-      <c r="P99" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q99" s="29"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="80"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="31"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="75"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="75"/>
-      <c r="O101" s="80"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="31"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="49"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="80"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="31"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="77"/>
-      <c r="M103" s="78"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="81"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="33"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G104" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H104" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="I104" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="L104" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="M104" s="74"/>
-      <c r="N104" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="O104" s="79"/>
-      <c r="P104" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q104" s="29"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="31"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="49"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="31"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="75"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="80"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="31"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="77"/>
-      <c r="M108" s="78"/>
-      <c r="N108" s="77"/>
-      <c r="O108" s="81"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="33"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D109" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F109" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G109" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H109" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I109" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="J109" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="K109" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="L109" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="M109" s="74"/>
-      <c r="N109" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="O109" s="79"/>
-      <c r="P109" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q109" s="29"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="49"/>
-      <c r="L110" s="75"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="80"/>
-      <c r="P110" s="30"/>
-      <c r="Q110" s="31"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="49"/>
-      <c r="K111" s="49"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="80"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="31"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="49"/>
-      <c r="L112" s="75"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="80"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="31"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="27"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="50"/>
-      <c r="K113" s="50"/>
-      <c r="L113" s="77"/>
-      <c r="M113" s="78"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="81"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="33"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D114" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H114" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I114" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="J114" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="L114" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="M114" s="29"/>
-      <c r="N114" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="O114" s="34"/>
-      <c r="P114" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q114" s="29"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="49"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="30"/>
-      <c r="Q115" s="31"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="49"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="31"/>
-      <c r="N116" s="30"/>
-      <c r="O116" s="35"/>
-      <c r="P116" s="30"/>
-      <c r="Q116" s="31"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="49"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="31"/>
-      <c r="N117" s="30"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="31"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="27"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="32"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="32"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="32"/>
-      <c r="Q118" s="33"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="91"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="91"/>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="91"/>
-      <c r="I119" s="91"/>
-      <c r="J119" s="91"/>
-      <c r="K119" s="91"/>
-      <c r="L119" s="91"/>
-      <c r="M119" s="91"/>
-      <c r="N119" s="91"/>
-      <c r="O119" s="91"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="92"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="93"/>
-      <c r="H120" s="93"/>
-      <c r="I120" s="93"/>
-      <c r="J120" s="93"/>
-      <c r="K120" s="93"/>
-      <c r="L120" s="93"/>
-      <c r="M120" s="93"/>
-      <c r="N120" s="93"/>
-      <c r="O120" s="93"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="B121" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D121" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H121" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="K121" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="L121" s="19"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="20"/>
-      <c r="P121" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q121" s="29"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="49"/>
-      <c r="L122" s="70"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="70"/>
-      <c r="O122" s="72"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="31"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="49"/>
-      <c r="K123" s="49"/>
-      <c r="L123" s="70"/>
-      <c r="M123" s="71"/>
-      <c r="N123" s="70"/>
-      <c r="O123" s="72"/>
-      <c r="P123" s="30"/>
-      <c r="Q123" s="31"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="49"/>
-      <c r="K124" s="49"/>
-      <c r="L124" s="70"/>
-      <c r="M124" s="71"/>
-      <c r="N124" s="70"/>
-      <c r="O124" s="72"/>
-      <c r="P124" s="30"/>
-      <c r="Q124" s="31"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="21"/>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="33"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="B126" s="111"/>
-      <c r="C126" s="111"/>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
-      <c r="O126" s="111"/>
-      <c r="P126" s="111"/>
-      <c r="Q126" s="112"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="113"/>
-      <c r="B127" s="114"/>
-      <c r="C127" s="114"/>
-      <c r="D127" s="114"/>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
-      <c r="G127" s="114"/>
-      <c r="H127" s="114"/>
-      <c r="I127" s="114"/>
-      <c r="J127" s="114"/>
-      <c r="K127" s="114"/>
-      <c r="L127" s="114"/>
-      <c r="M127" s="114"/>
-      <c r="N127" s="114"/>
-      <c r="O127" s="114"/>
-      <c r="P127" s="114"/>
-      <c r="Q127" s="115"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="60" t="s">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="15"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="18"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E128" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="F128" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="I128" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="J128" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="K128" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="L128" s="73"/>
-      <c r="M128" s="74"/>
-      <c r="N128" s="73"/>
-      <c r="O128" s="79"/>
-      <c r="P128" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q128" s="29"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" s="26"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="45"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="75"/>
-      <c r="M129" s="76"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="30"/>
-      <c r="Q129" s="31"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="75"/>
-      <c r="M130" s="76"/>
-      <c r="N130" s="75"/>
-      <c r="O130" s="80"/>
-      <c r="P130" s="30"/>
-      <c r="Q130" s="31"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" s="26"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="76"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="80"/>
-      <c r="P131" s="30"/>
-      <c r="Q131" s="31"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" s="27"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="76"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="80"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="31"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A133" s="60"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="77"/>
-      <c r="M133" s="78"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="81"/>
-      <c r="P133" s="32"/>
-      <c r="Q133" s="33"/>
+      <c r="D133" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L133" s="48"/>
+      <c r="M133" s="49"/>
+      <c r="N133" s="48"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="73"/>
-      <c r="M134" s="74"/>
-      <c r="N134" s="73"/>
-      <c r="O134" s="79"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="51"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="55"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="7"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A135" s="26"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="75"/>
-      <c r="M135" s="76"/>
-      <c r="N135" s="75"/>
-      <c r="O135" s="80"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="51"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="55"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="7"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="75"/>
-      <c r="M136" s="76"/>
-      <c r="N136" s="75"/>
-      <c r="O136" s="80"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="55"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="7"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A137" s="27"/>
+      <c r="A137" s="46"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="75"/>
-      <c r="M137" s="76"/>
-      <c r="N137" s="75"/>
-      <c r="O137" s="80"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="50"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="50"/>
+      <c r="O137" s="55"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="7"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" s="60"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -14097,15 +14159,15 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="75"/>
-      <c r="M138" s="76"/>
-      <c r="N138" s="75"/>
-      <c r="O138" s="80"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+      <c r="L138" s="52"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="52"/>
+      <c r="O138" s="56"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="9"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" s="26"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -14114,17 +14176,17 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="J139" s="3"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="77"/>
-      <c r="M139" s="78"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="81"/>
+      <c r="L139" s="48"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="48"/>
+      <c r="O139" s="54"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -14133,17 +14195,17 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="73"/>
-      <c r="M140" s="74"/>
-      <c r="N140" s="73"/>
-      <c r="O140" s="79"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="51"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="55"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="26"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -14154,15 +14216,15 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="75"/>
-      <c r="M141" s="76"/>
-      <c r="N141" s="75"/>
-      <c r="O141" s="80"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="51"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="55"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" s="27"/>
+      <c r="A142" s="46"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -14173,15 +14235,15 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="75"/>
-      <c r="M142" s="76"/>
-      <c r="N142" s="75"/>
-      <c r="O142" s="80"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="51"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="55"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" s="1"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -14192,15 +14254,15 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="75"/>
-      <c r="M143" s="76"/>
-      <c r="N143" s="75"/>
-      <c r="O143" s="80"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="55"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" s="1"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -14211,15 +14273,15 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="75"/>
-      <c r="M144" s="76"/>
-      <c r="N144" s="75"/>
-      <c r="O144" s="80"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="52"/>
+      <c r="O144" s="56"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -14228,286 +14290,137 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="J145" s="3"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="77"/>
-      <c r="M145" s="78"/>
-      <c r="N145" s="77"/>
-      <c r="O145" s="81"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="49"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="54"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="45"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="55"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="46"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="51"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="55"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="51"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="55"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="51"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="55"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="53"/>
+      <c r="N150" s="52"/>
+      <c r="O150" s="56"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="317">
-    <mergeCell ref="P121:Q125"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A126:Q127"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="P128:Q133"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="H19:H26"/>
-    <mergeCell ref="P14:Q18"/>
-    <mergeCell ref="P27:Q31"/>
-    <mergeCell ref="P37:Q42"/>
-    <mergeCell ref="P55:Q59"/>
-    <mergeCell ref="P67:Q71"/>
-    <mergeCell ref="P77:Q81"/>
-    <mergeCell ref="P82:Q86"/>
-    <mergeCell ref="P92:Q96"/>
-    <mergeCell ref="P99:Q103"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="L32:M36"/>
-    <mergeCell ref="N32:O36"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="P32:Q36"/>
-    <mergeCell ref="P104:Q108"/>
-    <mergeCell ref="P109:Q113"/>
-    <mergeCell ref="P114:Q118"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="P62:Q66"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="A60:O61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="L62:M66"/>
-    <mergeCell ref="N62:O66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="L1:Q2"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P19:Q26"/>
-    <mergeCell ref="L134:M139"/>
-    <mergeCell ref="N134:O139"/>
-    <mergeCell ref="L140:M145"/>
-    <mergeCell ref="N140:O145"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="H128:H132"/>
-    <mergeCell ref="I128:I132"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="L128:M133"/>
-    <mergeCell ref="N128:O133"/>
-    <mergeCell ref="A119:O120"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="G19:G26"/>
-    <mergeCell ref="L19:M26"/>
-    <mergeCell ref="N19:O26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
+  <mergeCells count="320">
+    <mergeCell ref="A45:A49"/>
     <mergeCell ref="F45:F49"/>
     <mergeCell ref="G45:G49"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="J121:J125"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="K121:K125"/>
-    <mergeCell ref="L121:M125"/>
-    <mergeCell ref="N121:O125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="F121:F125"/>
-    <mergeCell ref="G121:G125"/>
-    <mergeCell ref="H121:H125"/>
-    <mergeCell ref="D121:D125"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="J114:J118"/>
-    <mergeCell ref="K114:K118"/>
-    <mergeCell ref="L114:M118"/>
-    <mergeCell ref="N114:O118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="L109:M113"/>
-    <mergeCell ref="N109:O113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="L104:M108"/>
-    <mergeCell ref="N104:O108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="A97:O98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="J99:J103"/>
-    <mergeCell ref="K99:K103"/>
-    <mergeCell ref="L92:M96"/>
-    <mergeCell ref="N92:O96"/>
-    <mergeCell ref="L99:M103"/>
-    <mergeCell ref="N99:O103"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="K87:K91"/>
-    <mergeCell ref="L87:M91"/>
-    <mergeCell ref="N87:O91"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="K82:K86"/>
-    <mergeCell ref="L82:M86"/>
-    <mergeCell ref="N82:O86"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="K77:K81"/>
-    <mergeCell ref="L77:M81"/>
-    <mergeCell ref="N77:O81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="K72:K76"/>
-    <mergeCell ref="L72:M76"/>
-    <mergeCell ref="N72:O76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="K67:K71"/>
-    <mergeCell ref="L67:M71"/>
-    <mergeCell ref="N67:O71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="K55:K59"/>
-    <mergeCell ref="L55:M59"/>
-    <mergeCell ref="N55:O59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="L50:M54"/>
-    <mergeCell ref="N50:O54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="K45:K49"/>
-    <mergeCell ref="L45:M49"/>
-    <mergeCell ref="N45:O49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="N14:O18"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="K19:K26"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L9:M13"/>
+    <mergeCell ref="N9:O13"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -14532,30 +14445,277 @@
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="K55:K59"/>
+    <mergeCell ref="L55:M59"/>
+    <mergeCell ref="N55:O59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="L50:M54"/>
+    <mergeCell ref="N50:O54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="L60:M64"/>
+    <mergeCell ref="N60:O64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="L72:M76"/>
+    <mergeCell ref="N72:O76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="K77:K81"/>
+    <mergeCell ref="L77:M81"/>
+    <mergeCell ref="N77:O81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="K82:K86"/>
+    <mergeCell ref="L82:M86"/>
+    <mergeCell ref="N82:O86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="K87:K91"/>
+    <mergeCell ref="L87:M91"/>
+    <mergeCell ref="N87:O91"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="L92:M96"/>
+    <mergeCell ref="N92:O96"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="G92:G96"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="A102:O103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="L97:M101"/>
+    <mergeCell ref="N97:O101"/>
+    <mergeCell ref="L104:M108"/>
+    <mergeCell ref="N104:O108"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="L109:M113"/>
+    <mergeCell ref="N109:O113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="J114:J118"/>
+    <mergeCell ref="K114:K118"/>
+    <mergeCell ref="L114:M118"/>
+    <mergeCell ref="N114:O118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="J119:J123"/>
+    <mergeCell ref="K119:K123"/>
+    <mergeCell ref="L119:M123"/>
+    <mergeCell ref="N119:O123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="K126:K130"/>
+    <mergeCell ref="L126:M130"/>
+    <mergeCell ref="N126:O130"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="H126:H130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="L133:M138"/>
+    <mergeCell ref="N133:O138"/>
+    <mergeCell ref="A124:O125"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="L19:M26"/>
+    <mergeCell ref="N19:O26"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="L139:M144"/>
+    <mergeCell ref="N139:O144"/>
+    <mergeCell ref="L145:M150"/>
+    <mergeCell ref="N145:O150"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="H133:H137"/>
+    <mergeCell ref="I133:I137"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="L1:Q2"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P19:Q26"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
     <mergeCell ref="L37:M42"/>
     <mergeCell ref="N37:O42"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L14:M18"/>
-    <mergeCell ref="N14:O18"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="K19:K26"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L9:M13"/>
-    <mergeCell ref="N9:O13"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="P67:Q71"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="A65:O66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="L67:M71"/>
+    <mergeCell ref="N67:O71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="P14:Q18"/>
+    <mergeCell ref="P27:Q31"/>
+    <mergeCell ref="P37:Q42"/>
+    <mergeCell ref="P60:Q64"/>
+    <mergeCell ref="P72:Q76"/>
+    <mergeCell ref="P82:Q86"/>
+    <mergeCell ref="P87:Q91"/>
+    <mergeCell ref="P97:Q101"/>
+    <mergeCell ref="P104:Q108"/>
+    <mergeCell ref="P32:Q36"/>
+    <mergeCell ref="P126:Q130"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="A131:Q132"/>
+    <mergeCell ref="G133:G137"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="K133:K137"/>
+    <mergeCell ref="J133:J137"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="P133:Q138"/>
+    <mergeCell ref="H97:H101"/>
+    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="L32:M36"/>
+    <mergeCell ref="N32:O36"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="P109:Q113"/>
+    <mergeCell ref="P114:Q118"/>
+    <mergeCell ref="P119:Q123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_results.xlsx
+++ b/tests_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B41725-0109-2A45-BC57-1A8754BD54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1072C021-2B98-0743-9815-DFA7B4753F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
   <si>
     <t>v0.7.1</t>
   </si>
@@ -9859,6 +9859,76 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">insecure: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">meds.c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(many issues)</t>
+    </r>
+  </si>
+  <si>
+    <t>insecure: meds.c (many issues)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">LAST: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> meas:    0.02 M (M=1e4), max t:   +1.63,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> max tau: 1.11e-02, (5/tau)^2: 2.04e+05. </t>
     </r>
   </si>
 </sst>
@@ -10924,8 +10994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36623FBA-CEA1-594C-B41A-AB27154FBA5D}">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11991,9 +12061,15 @@
         <v>16</v>
       </c>
       <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
+      <c r="I45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -12010,9 +12086,9 @@
       <c r="F46" s="45"/>
       <c r="G46" s="45"/>
       <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -12029,9 +12105,9 @@
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
       <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -12048,9 +12124,9 @@
       <c r="F48" s="45"/>
       <c r="G48" s="45"/>
       <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -12067,9 +12143,9 @@
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
       <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -14395,10 +14471,13 @@
       <c r="Q150" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="323">
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="F45:F49"/>
     <mergeCell ref="G45:G49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="K45:K49"/>
+    <mergeCell ref="I45:I49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="H1:I2"/>

--- a/tests_results.xlsx
+++ b/tests_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1072C021-2B98-0743-9815-DFA7B4753F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE81C060-1DF5-954F-BA0D-59E4069B9111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
